--- a/NICHOLAS GATAKA.xlsx
+++ b/NICHOLAS GATAKA.xlsx
@@ -34473,7 +34473,7 @@
   <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35213,10 +35213,12 @@
         <f t="shared" si="2"/>
         <v>8500</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="7">
+        <v>7000</v>
+      </c>
       <c r="I16" s="7">
         <f t="shared" si="0"/>
-        <v>8500</v>
+        <v>1500</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -35529,7 +35531,9 @@
         <f t="shared" si="2"/>
         <v>7000</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="7">
+        <v>7000</v>
+      </c>
       <c r="I22" s="7">
         <v>4</v>
       </c>
@@ -35804,11 +35808,11 @@
       </c>
       <c r="H27" s="6">
         <f t="shared" si="5"/>
-        <v>35000</v>
+        <v>49000</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="5"/>
-        <v>154704</v>
+        <v>147704</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" si="5"/>
@@ -35854,7 +35858,7 @@
       </c>
       <c r="I28" s="8">
         <f>I27-F26-D13-D7</f>
-        <v>140604</v>
+        <v>133604</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>198</v>
@@ -35996,7 +36000,7 @@
       </c>
       <c r="G31" s="16">
         <f>H27</f>
-        <v>35000</v>
+        <v>49000</v>
       </c>
       <c r="H31" s="17">
         <v>0.1</v>
@@ -36452,7 +36456,7 @@
       <c r="F45" s="24"/>
       <c r="G45" s="23">
         <f>G31+G32+G35-H36-H37</f>
-        <v>-7200</v>
+        <v>6800</v>
       </c>
       <c r="H45" s="23">
         <f>SUM(H39:H44)</f>
@@ -36460,7 +36464,7 @@
       </c>
       <c r="I45" s="23">
         <f>G45-H45</f>
-        <v>-7200</v>
+        <v>6800</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="21"/>

--- a/NICHOLAS GATAKA.xlsx
+++ b/NICHOLAS GATAKA.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11760" tabRatio="870" firstSheet="16" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="8205" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="JANUARY 20" sheetId="1" r:id="rId1"/>
@@ -36,13 +31,15 @@
     <sheet name="OCTOBER 21" sheetId="22" r:id="rId22"/>
     <sheet name="NOVEMBER" sheetId="23" r:id="rId23"/>
     <sheet name="DECEMBER 21" sheetId="24" r:id="rId24"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="297">
   <si>
     <t>RENT STATEMENT</t>
   </si>
@@ -281,20 +278,7 @@
     <t>JUSTIN</t>
   </si>
   <si>
-    <r>
-      <t>WA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TER</t>
-    </r>
+    <t/>
   </si>
   <si>
     <t>PAID ON 15/1</t>
@@ -360,20 +344,7 @@
     <t>KENNEDY CHEGE</t>
   </si>
   <si>
-    <r>
-      <t>WA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TER DEP</t>
-    </r>
+    <t/>
   </si>
   <si>
     <t>WATER DEP</t>
@@ -957,11 +928,14 @@
   <si>
     <t>PAID ON 30/11</t>
   </si>
+  <si>
+    <t>PAID ON 10/12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1206,44 +1180,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1273,12 +1247,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1317,166 +1291,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1484,32 +1434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView topLeftCell="G10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
-    <col min="24" max="24" width="8" customWidth="1"/>
-    <col min="25" max="25" width="6" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -1553,7 +1480,7 @@
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3521,8 +3448,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3530,18 +3456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -3567,7 +3484,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -4703,8 +4620,7 @@
       <c r="I49" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4712,17 +4628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -4748,7 +4656,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5871,8 +5779,7 @@
       <c r="J52" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5880,15 +5787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -5914,7 +5815,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -7033,22 +6934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" customWidth="1"/>
-    <col min="20" max="20" width="8.140625" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -7092,7 +6980,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -9375,8 +9263,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9384,16 +9271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -9437,7 +9317,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -11834,7 +11714,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11842,9 +11721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11890,7 +11767,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -14178,7 +14055,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14186,14 +14062,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -14240,7 +14111,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -16047,7 +15918,7 @@
       </c>
       <c r="U36" s="9"/>
     </row>
-    <row r="37" spans="2:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>22</v>
       </c>
@@ -16501,9 +16372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16552,7 +16421,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -18842,14 +18711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -18896,7 +18760,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -21185,7 +21049,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21193,14 +21056,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -21247,7 +21105,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -23572,24 +23430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
@@ -23648,7 +23491,7 @@
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>2</v>
@@ -24992,8 +24835,7 @@
       <c r="N51" s="28"/>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -25001,14 +24843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -25055,7 +24892,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -27439,9 +27276,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="T21" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -27449,19 +27283,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -27516,7 +27340,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -29798,7 +29622,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29806,17 +29629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -29871,7 +29686,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -32133,17 +31948,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView topLeftCell="J8" workbookViewId="0">
-      <selection activeCell="U53" sqref="U53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -32198,7 +32007,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -34407,6 +34216,10 @@
         <f>E27</f>
         <v>153000</v>
       </c>
+      <c r="P59">
+        <f>P46+P47+H40</f>
+        <v>263300</v>
+      </c>
     </row>
     <row r="60" spans="6:22" x14ac:dyDescent="0.25">
       <c r="N60">
@@ -34470,10 +34283,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34531,7 +34344,7 @@
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -34639,11 +34452,12 @@
         <v>7000</v>
       </c>
       <c r="T5" s="7">
-        <v>6500</v>
+        <f>6500+500</f>
+        <v>7000</v>
       </c>
       <c r="U5" s="7">
         <f t="shared" ref="U5:U21" si="1">S5-T5</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7"/>
     </row>
@@ -34713,19 +34527,19 @@
         <v>7500</v>
       </c>
       <c r="F7" s="7">
-        <f>NOVEMBER!I7:I28</f>
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G7" s="7">
         <f>C7+D7+E7+F7</f>
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="H7" s="7">
-        <v>5000</v>
+        <f>5000+9000</f>
+        <v>14000</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="0"/>
-        <v>17500</v>
+        <v>6000</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -34748,10 +34562,12 @@
         <f>O7+P7+Q7+R7</f>
         <v>9500</v>
       </c>
-      <c r="T7" s="7"/>
+      <c r="T7" s="7">
+        <v>8500</v>
+      </c>
       <c r="U7" s="7">
         <f t="shared" si="1"/>
-        <v>9500</v>
+        <v>1000</v>
       </c>
       <c r="V7" s="7"/>
     </row>
@@ -34803,10 +34619,12 @@
         <f>O8+P8+Q8+R8</f>
         <v>9000</v>
       </c>
-      <c r="T8" s="7"/>
+      <c r="T8" s="7">
+        <v>9000</v>
+      </c>
       <c r="U8" s="7">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="V8" s="7"/>
     </row>
@@ -34917,10 +34735,12 @@
         <f t="shared" si="3"/>
         <v>19600</v>
       </c>
-      <c r="T10" s="7"/>
+      <c r="T10" s="7">
+        <v>8500</v>
+      </c>
       <c r="U10" s="7">
         <f t="shared" si="1"/>
-        <v>19600</v>
+        <v>11100</v>
       </c>
       <c r="V10" s="7"/>
     </row>
@@ -34970,10 +34790,12 @@
         <f t="shared" si="3"/>
         <v>12500</v>
       </c>
-      <c r="T11" s="7"/>
+      <c r="T11" s="7">
+        <v>10000</v>
+      </c>
       <c r="U11" s="7">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>2500</v>
       </c>
       <c r="V11" s="7"/>
     </row>
@@ -34997,10 +34819,12 @@
         <f t="shared" si="2"/>
         <v>4600</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <v>4500</v>
+      </c>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
-        <v>4600</v>
+        <v>100</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -35023,10 +34847,12 @@
         <f t="shared" si="3"/>
         <v>17000</v>
       </c>
-      <c r="T12" s="7"/>
+      <c r="T12" s="7">
+        <v>17000</v>
+      </c>
       <c r="U12" s="7">
         <f t="shared" si="1"/>
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="V12" s="7"/>
     </row>
@@ -35052,10 +34878,12 @@
         <f t="shared" si="2"/>
         <v>18000</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>8000</v>
+      </c>
       <c r="I13" s="7">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -35078,10 +34906,12 @@
         <f t="shared" si="3"/>
         <v>3500</v>
       </c>
-      <c r="T13" s="7"/>
+      <c r="T13" s="7">
+        <v>3500</v>
+      </c>
       <c r="U13" s="7">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="V13" s="7"/>
     </row>
@@ -35105,10 +34935,12 @@
         <f t="shared" si="2"/>
         <v>6500</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>6500</v>
+      </c>
       <c r="I14" s="7">
         <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -35131,10 +34963,12 @@
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="T14" s="7"/>
+      <c r="T14" s="7">
+        <v>5000</v>
+      </c>
       <c r="U14" s="7">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="V14" s="7"/>
     </row>
@@ -35186,10 +35020,12 @@
         <f t="shared" si="3"/>
         <v>4000</v>
       </c>
-      <c r="T15" s="7"/>
+      <c r="T15" s="7">
+        <v>4000</v>
+      </c>
       <c r="U15" s="7">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="V15" s="7"/>
     </row>
@@ -35241,10 +35077,12 @@
         <f t="shared" si="3"/>
         <v>4500</v>
       </c>
-      <c r="T16" s="7"/>
+      <c r="T16" s="7">
+        <v>4500</v>
+      </c>
       <c r="U16" s="7">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="V16" s="7"/>
     </row>
@@ -35319,10 +35157,12 @@
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="H18" s="7"/>
+      <c r="H18" s="7">
+        <v>5000</v>
+      </c>
       <c r="I18" s="7">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -35330,20 +35170,24 @@
         <v>189</v>
       </c>
       <c r="N18" s="45" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="O18" s="45"/>
       <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
+      <c r="Q18" s="45">
+        <v>4500</v>
+      </c>
       <c r="R18" s="7">
         <f>NOVEMBER!U18:U44</f>
         <v>0</v>
       </c>
       <c r="S18" s="45">
         <f>O18+P18+Q18+R18</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="7"/>
+        <v>4500</v>
+      </c>
+      <c r="T18" s="7">
+        <v>4500</v>
+      </c>
       <c r="U18" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -35370,10 +35214,12 @@
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="7">
+        <v>8000</v>
+      </c>
       <c r="I19" s="7">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -35451,10 +35297,12 @@
         <f t="shared" si="3"/>
         <v>4500</v>
       </c>
-      <c r="T20" s="7"/>
+      <c r="T20" s="7">
+        <v>4500</v>
+      </c>
       <c r="U20" s="7">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="V20" s="7"/>
     </row>
@@ -35478,10 +35326,12 @@
         <f t="shared" si="2"/>
         <v>6500</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7">
+        <v>6500</v>
+      </c>
       <c r="I21" s="7">
         <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -35504,10 +35354,12 @@
         <f t="shared" si="3"/>
         <v>10500</v>
       </c>
-      <c r="T21" s="7"/>
+      <c r="T21" s="7">
+        <v>4200</v>
+      </c>
       <c r="U21" s="7">
         <f t="shared" si="1"/>
-        <v>10500</v>
+        <v>6300</v>
       </c>
       <c r="V21" s="7"/>
     </row>
@@ -35587,10 +35439,12 @@
         <f t="shared" si="2"/>
         <v>8500</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="7">
+        <v>8500</v>
+      </c>
       <c r="I23" s="7">
         <f>G23-H23</f>
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -35640,10 +35494,12 @@
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7">
+        <v>5000</v>
+      </c>
       <c r="I24" s="7">
         <f>G24-H24</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
@@ -35695,10 +35551,12 @@
         <f t="shared" si="2"/>
         <v>8500</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7">
+        <v>8500</v>
+      </c>
       <c r="I25" s="7">
         <f>G25-H25</f>
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -35750,10 +35608,13 @@
         <f t="shared" si="2"/>
         <v>13600</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7">
+        <f>5000+2000</f>
+        <v>7000</v>
+      </c>
       <c r="I26" s="7">
         <f>G26-H26</f>
-        <v>13600</v>
+        <v>6600</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -35765,19 +35626,21 @@
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="Q26" s="7">
+        <v>4000</v>
+      </c>
       <c r="R26" s="7">
         <f>NOVEMBER!U26:U52</f>
         <v>4000</v>
       </c>
       <c r="S26" s="7">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="T26" s="7"/>
       <c r="U26" s="7">
         <f t="shared" ref="U26:U31" si="4">S26-T26</f>
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="V26" s="7"/>
     </row>
@@ -35800,19 +35663,19 @@
       </c>
       <c r="F27" s="7">
         <f>SUM(F5:F26)</f>
-        <v>42200</v>
+        <v>39700</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="5"/>
-        <v>196700</v>
+        <v>194200</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="5"/>
-        <v>49000</v>
+        <v>125500</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="5"/>
-        <v>147704</v>
+        <v>68704</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" si="5"/>
@@ -35842,11 +35705,11 @@
         <v>10000</v>
       </c>
       <c r="T27" s="7">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="U27" s="7">
         <f t="shared" si="4"/>
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="V27" s="7"/>
     </row>
@@ -35858,7 +35721,7 @@
       </c>
       <c r="I28" s="8">
         <f>I27-F26-D13-D7</f>
-        <v>133604</v>
+        <v>54604</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>198</v>
@@ -35879,13 +35742,15 @@
         <f t="shared" si="3"/>
         <v>10900</v>
       </c>
-      <c r="T28" s="7"/>
+      <c r="T28" s="7">
+        <v>8500</v>
+      </c>
       <c r="U28" s="7">
         <f t="shared" si="4"/>
-        <v>10900</v>
+        <v>2400</v>
       </c>
       <c r="V28" s="7">
-        <v>8500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -35976,10 +35841,12 @@
         <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="T30" s="7"/>
+      <c r="T30" s="7">
+        <v>5000</v>
+      </c>
       <c r="U30" s="7">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="V30" s="7"/>
     </row>
@@ -36000,7 +35867,7 @@
       </c>
       <c r="G31" s="16">
         <f>H27</f>
-        <v>49000</v>
+        <v>125500</v>
       </c>
       <c r="H31" s="17">
         <v>0.1</v>
@@ -36025,10 +35892,12 @@
         <f t="shared" si="3"/>
         <v>66100</v>
       </c>
-      <c r="T31" s="7"/>
+      <c r="T31" s="7">
+        <v>3000</v>
+      </c>
       <c r="U31" s="7">
         <f t="shared" si="4"/>
-        <v>66100</v>
+        <v>63100</v>
       </c>
       <c r="V31" s="7"/>
     </row>
@@ -36066,7 +35935,7 @@
       </c>
       <c r="Q32" s="6">
         <f>SUM(Q5:Q31)</f>
-        <v>143000</v>
+        <v>151500</v>
       </c>
       <c r="R32" s="7">
         <f>SUM(R5:R31)</f>
@@ -36074,28 +35943,26 @@
       </c>
       <c r="S32" s="7">
         <f t="shared" si="6"/>
-        <v>337900</v>
+        <v>346400</v>
       </c>
       <c r="T32" s="6">
         <f t="shared" si="6"/>
-        <v>35200</v>
+        <v>145200</v>
       </c>
       <c r="U32" s="6">
         <f t="shared" si="6"/>
-        <v>302700</v>
+        <v>201200</v>
       </c>
       <c r="V32" s="6">
         <f t="shared" si="6"/>
-        <v>8500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="16">
-        <v>7500</v>
-      </c>
+      <c r="C33" s="16"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -36210,7 +36077,7 @@
       </c>
       <c r="O36" s="16">
         <f>Q32</f>
-        <v>143000</v>
+        <v>151500</v>
       </c>
       <c r="P36" s="17">
         <v>0.1</v>
@@ -36221,7 +36088,7 @@
       </c>
       <c r="S36" s="16">
         <f>T32</f>
-        <v>35200</v>
+        <v>145200</v>
       </c>
       <c r="T36" s="17">
         <v>0.1</v>
@@ -36295,13 +36162,21 @@
       <c r="U38" s="9"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="20"/>
+      <c r="B39" s="20" t="s">
+        <v>296</v>
+      </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="D39" s="9">
+        <v>131400</v>
+      </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="20"/>
+      <c r="F39" s="20" t="s">
+        <v>296</v>
+      </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="9">
+        <v>131400</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="26"/>
       <c r="N39" s="9" t="s">
@@ -36309,7 +36184,7 @@
       </c>
       <c r="O39" s="16">
         <f>V32</f>
-        <v>8500</v>
+        <v>500</v>
       </c>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
@@ -36363,7 +36238,7 @@
       <c r="O41" s="18"/>
       <c r="P41" s="9">
         <f>P36*O36</f>
-        <v>14300</v>
+        <v>15150</v>
       </c>
       <c r="Q41" s="9"/>
       <c r="R41" s="9" t="s">
@@ -36372,7 +36247,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="9">
         <f>T36*O36</f>
-        <v>14300</v>
+        <v>15150</v>
       </c>
       <c r="U41" s="9"/>
     </row>
@@ -36427,13 +36302,23 @@
       <c r="G44" s="9"/>
       <c r="H44" s="16"/>
       <c r="I44" s="9"/>
-      <c r="N44" s="20"/>
+      <c r="N44" s="20" t="s">
+        <v>296</v>
+      </c>
       <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
+      <c r="P44" s="9">
+        <f>61100+7500</f>
+        <v>68600</v>
+      </c>
       <c r="Q44" s="9"/>
-      <c r="R44" s="20"/>
+      <c r="R44" s="20" t="s">
+        <v>296</v>
+      </c>
       <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
+      <c r="T44" s="9">
+        <f>61100+7500</f>
+        <v>68600</v>
+      </c>
       <c r="U44" s="9"/>
       <c r="V44" s="26"/>
     </row>
@@ -36443,28 +36328,28 @@
       </c>
       <c r="C45" s="23">
         <f>C31+C32+C33+C34+C35-D37-D36</f>
-        <v>138900</v>
+        <v>131400</v>
       </c>
       <c r="D45" s="22">
         <f>SUM(D39:D44)</f>
-        <v>0</v>
+        <v>131400</v>
       </c>
       <c r="E45" s="23">
         <f>C45-D45</f>
-        <v>138900</v>
+        <v>0</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="23">
         <f>G31+G32+G35-H36-H37</f>
-        <v>6800</v>
+        <v>83300</v>
       </c>
       <c r="H45" s="23">
         <f>SUM(H39:H44)</f>
-        <v>0</v>
+        <v>131400</v>
       </c>
       <c r="I45" s="23">
         <f>G45-H45</f>
-        <v>6800</v>
+        <v>-48100</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="21"/>
@@ -36478,7 +36363,7 @@
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E46" s="26">
         <f>E45-C32</f>
-        <v>138900</v>
+        <v>0</v>
       </c>
       <c r="I46" s="26"/>
       <c r="K46" s="26"/>
@@ -36550,33 +36435,37 @@
       <c r="F50" s="26"/>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
+      <c r="K50">
+        <f>138900-D39</f>
+        <v>7500</v>
+      </c>
       <c r="N50" s="22" t="s">
         <v>12</v>
       </c>
       <c r="O50" s="23">
         <f>O36+O37+O38+O39+O40-P42-P41</f>
-        <v>153400</v>
+        <v>153050</v>
       </c>
       <c r="P50" s="22">
         <f>SUM(P44:P49)</f>
-        <v>0</v>
+        <v>68600</v>
       </c>
       <c r="Q50" s="23">
         <f>O50-P50</f>
-        <v>153400</v>
+        <v>84450</v>
       </c>
       <c r="R50" s="24"/>
       <c r="S50" s="23">
         <f>S36+S37+S40-T41</f>
-        <v>35900</v>
+        <v>145050</v>
       </c>
       <c r="T50" s="23">
         <f>SUM(T44:T49)</f>
-        <v>0</v>
+        <v>68600</v>
       </c>
       <c r="U50" s="23">
         <f>S50-T50</f>
-        <v>35900</v>
+        <v>76450</v>
       </c>
     </row>
     <row r="52" spans="6:22" x14ac:dyDescent="0.25">
@@ -36610,16 +36499,23 @@
         <v>187000</v>
       </c>
     </row>
+    <row r="56" spans="6:22" x14ac:dyDescent="0.25">
+      <c r="T56" s="26"/>
+    </row>
     <row r="57" spans="6:22" x14ac:dyDescent="0.25">
       <c r="G57" s="26">
         <f>E45+Q50</f>
-        <v>292300</v>
+        <v>84450</v>
+      </c>
+      <c r="L57">
+        <f>H39-200000</f>
+        <v>-68600</v>
       </c>
     </row>
     <row r="58" spans="6:22" x14ac:dyDescent="0.25">
       <c r="N58">
         <f>Q32</f>
-        <v>143000</v>
+        <v>151500</v>
       </c>
     </row>
     <row r="59" spans="6:22" x14ac:dyDescent="0.25">
@@ -36631,7 +36527,7 @@
     <row r="60" spans="6:22" x14ac:dyDescent="0.25">
       <c r="N60">
         <f>N58+N59</f>
-        <v>289000</v>
+        <v>297500</v>
       </c>
     </row>
     <row r="61" spans="6:22" x14ac:dyDescent="0.25">
@@ -36641,49 +36537,43 @@
       </c>
       <c r="N61">
         <f>P36*N60</f>
-        <v>28900</v>
+        <v>29750</v>
       </c>
     </row>
     <row r="62" spans="6:22" x14ac:dyDescent="0.25">
       <c r="N62">
         <f>N60-N61</f>
-        <v>260100</v>
+        <v>267750</v>
       </c>
     </row>
     <row r="63" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="M63" t="s">
-        <v>4</v>
-      </c>
       <c r="N63">
-        <v>7500</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="64" spans="6:22" x14ac:dyDescent="0.25">
-      <c r="M64" t="s">
-        <v>21</v>
-      </c>
       <c r="N64">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N65">
-        <f>N62+N63+N64</f>
-        <v>269600</v>
-      </c>
-    </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N66">
-        <v>187000</v>
-      </c>
-    </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N67">
-        <f>N65-N66</f>
-        <v>82600</v>
+        <f>N62-N63</f>
+        <v>67750</v>
+      </c>
+      <c r="P64">
+        <f>67750+12000</f>
+        <v>79750</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -36692,21 +36582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="0.5703125" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="5" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
@@ -36732,7 +36610,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -37783,7 +37661,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37791,19 +37668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="0.85546875" customWidth="1"/>
-    <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
@@ -37829,7 +37696,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -38921,8 +38788,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -38930,19 +38796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -38968,7 +38824,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -40046,8 +39902,7 @@
       <c r="H50" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.75" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -40055,19 +39910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -40093,7 +39938,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -41176,8 +41021,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -41185,14 +41029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -41218,7 +41057,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -42322,8 +42161,7 @@
       <c r="I49" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -42331,18 +42169,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -42368,7 +42197,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -43482,8 +43311,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -43491,19 +43319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
@@ -43529,7 +43347,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -44629,7 +44447,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>